--- a/Apresentação.xlsx
+++ b/Apresentação.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bloqueado por Mês" sheetId="1" r:id="rId1"/>
+    <sheet name="Corte" sheetId="2" r:id="rId2"/>
+    <sheet name="Corte-motivos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>MÊS</t>
   </si>
@@ -68,6 +70,64 @@
   </si>
   <si>
     <t>Outubro</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Soma de Valor Total 
+Corte/Pedido</t>
+  </si>
+  <si>
+    <t>FATURAMENTO</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>6 - Falta de Mercadoria no Carga G</t>
+  </si>
+  <si>
+    <t>12 - Falta de Mercadoria no Fracion</t>
+  </si>
+  <si>
+    <t>13 - Mercadoria avariada</t>
+  </si>
+  <si>
+    <t>17 - Erro de Ajustes de estoque</t>
+  </si>
+  <si>
+    <t>104 - Erro de Mov. Dep. 99 / SME / S</t>
+  </si>
+  <si>
+    <t>110 - Devolucao</t>
+  </si>
+  <si>
+    <t>111 - Erro de Recebimento</t>
+  </si>
+  <si>
+    <t>204 - Item Desbloqueado</t>
+  </si>
+  <si>
+    <t>Motivos</t>
   </si>
 </sst>
 </file>
@@ -77,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +159,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +179,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,7 +223,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +239,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -467,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,4 +976,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9">
+        <v>436879.99730000168</v>
+      </c>
+      <c r="C2" s="11">
+        <v>360380156.88000005</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1.2122753957440411E-3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9">
+        <v>255757.92200000084</v>
+      </c>
+      <c r="C3" s="11">
+        <v>350452065.86999995</v>
+      </c>
+      <c r="D3" s="12">
+        <v>7.2979430543540903E-4</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="9">
+        <v>523077.45720000012</v>
+      </c>
+      <c r="C4" s="11">
+        <v>322293428.41999996</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.6229851777131068E-3</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>566140.90189999936</v>
+      </c>
+      <c r="C5" s="11">
+        <v>320438110.04999995</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.7667714424219418E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9">
+        <v>719851.30610000493</v>
+      </c>
+      <c r="C6" s="11">
+        <v>344558919.48000002</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2.0891965507274842E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>492688.01580000127</v>
+      </c>
+      <c r="C7" s="11">
+        <v>314543241.64999998</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1.5663602028627511E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9">
+        <v>443864.75449999963</v>
+      </c>
+      <c r="C8" s="11">
+        <v>341567717.83999997</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1.2994926959342173E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>358709.8034999994</v>
+      </c>
+      <c r="C9" s="11">
+        <v>336074954.63</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.0673505971158105E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <v>352623.02240000025</v>
+      </c>
+      <c r="C10" s="11">
+        <v>336366422.69</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.0483300312200976E-3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9">
+        <v>263619.58529999957</v>
+      </c>
+      <c r="C11" s="11">
+        <v>234879863.84999999</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.1223592392251788E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11">
+        <v>369088.76819999964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="11">
+        <v>321084.94119999977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11">
+        <v>62799.943600000013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1167090.7419000084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11">
+        <v>87315.459999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="11">
+        <v>31992.264000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2383196.6190999979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Apresentação.xlsx
+++ b/Apresentação.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{314ADDB2-8B7C-4E20-873F-82046069EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloqueado por Mês" sheetId="1" r:id="rId1"/>
     <sheet name="Corte" sheetId="2" r:id="rId2"/>
     <sheet name="Corte-motivos" sheetId="3" r:id="rId3"/>
+    <sheet name="Inventario" sheetId="4" r:id="rId4"/>
+    <sheet name="Inventario - Valores" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>MÊS</t>
   </si>
@@ -103,6 +122,9 @@
     <t>Junho</t>
   </si>
   <si>
+    <t>Motivos</t>
+  </si>
+  <si>
     <t>6 - Falta de Mercadoria no Carga G</t>
   </si>
   <si>
@@ -127,17 +149,51 @@
     <t>204 - Item Desbloqueado</t>
   </si>
   <si>
-    <t>Motivos</t>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Estoque Contado Acumulado</t>
+  </si>
+  <si>
+    <t>11 Ajuste Inv. Falta</t>
+  </si>
+  <si>
+    <t>5 Ajuste Inv. Sobra</t>
+  </si>
+  <si>
+    <t>Valor Absoluto</t>
+  </si>
+  <si>
+    <t>Valor Modular</t>
+  </si>
+  <si>
+    <t>% Ajuste</t>
+  </si>
+  <si>
+    <t>CD - UDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +249,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -217,18 +279,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -257,6 +331,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -277,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,9 +398,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -578,397 +659,397 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1292219.3500000001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1733974.42</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D15" si="0">C3-C2</f>
         <v>441755.06999999983</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>D3/C3</f>
         <v>0.25476446763268851</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1835501.58</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>101527.16000000015</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E19" si="1">D4/C4</f>
         <v>5.5313033290878534E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1335687.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>-499814.33000000007</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>-0.37420012057463309</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1276659.69</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>-59027.560000000056</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>-4.6235939352013269E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1226865.8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>-49793.889999999898</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>-4.0586256459345348E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1605418.89</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>378553.08999999985</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>0.23579708221821152</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1575435.59</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>-29983.299999999814</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>-1.9031752354915259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1668733.76</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>93298.169999999925</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>5.5909559832959768E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1840414.75</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>171680.99</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>9.3283858977983081E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2213653.7999999998</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>373239.04999999981</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>0.16860768833861908</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1864341.89</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>-349311.90999999992</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>-0.18736472739986545</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>1668780.35</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>-195561.5399999998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>-0.1171883046201975</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2146466.0499999998</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>477685.69999999972</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>0.22254519236397882</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>1953112.29</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f>C16-C15</f>
         <v>-193353.75999999978</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>-9.8997769349963891E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2242558.5499999998</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>C17-C16</f>
         <v>289446.25999999978</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>0.12906965572872101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2307915.15</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:D19" si="2">C18-C17</f>
         <v>65356.600000000093</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>2.8318458761363085E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2670112.0299999998</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>362196.87999999989</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>0.13564857052084062</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3063372.93</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" ref="D20" si="3">C20-C19</f>
         <v>393260.90000000037</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" ref="E20" si="4">D20/C20</f>
         <v>0.12837513061134229</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>2901749.59</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" ref="D21" si="5">C21-C20</f>
         <v>-161623.34000000032</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" ref="E21" si="6">D21/C21</f>
         <v>-5.569858286772441E-2</v>
       </c>
@@ -979,14 +1060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -995,190 +1076,190 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>436879.99730000168</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>360380156.88000005</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>1.2122753957440411E-3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>255757.92200000084</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>350452065.86999995</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>7.2979430543540903E-4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>523077.45720000012</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>322293428.41999996</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>1.6229851777131068E-3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>566140.90189999936</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>320438110.04999995</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1.7667714424219418E-3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>719851.30610000493</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>344558919.48000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>2.0891965507274842E-3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>492688.01580000127</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>314543241.64999998</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>1.5663602028627511E-3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>443864.75449999963</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>341567717.83999997</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>1.2994926959342173E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>358709.8034999994</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>336074954.63</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>1.0673505971158105E-3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>352623.02240000025</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>336366422.69</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>1.0483300312200976E-3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>263619.58529999957</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>234879863.84999999</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1.1223592392251788E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -1188,92 +1269,304 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10">
+        <v>369088.76819999964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10">
+        <v>321084.94119999977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10">
+        <v>62799.943600000013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1167090.7419000084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10">
+        <v>87315.459999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="10">
+        <v>31992.264000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="11">
-        <v>369088.76819999964</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11">
-        <v>321084.94119999977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="11">
-        <v>62799.943600000013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1167090.7419000084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="11">
-        <v>87315.459999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="11">
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="11">
-        <v>31992.264000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2383196.6190999979</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC25E059-636F-4F03-BC8A-D97DB7BDDD83}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1.5E-3</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECD6C5-31E8-4A35-8E8A-2E9C0805576D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1765649563.4000001</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1242536.8</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1457546.53</v>
+      </c>
+      <c r="F2" s="17">
+        <v>215009.73</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2700083.33</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Apresentação.xlsx
+++ b/Apresentação.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314ADDB2-8B7C-4E20-873F-82046069EEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DE1456-5400-464A-93BF-F9DA23D321B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bloqueado por Mês" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Corte-motivos" sheetId="3" r:id="rId3"/>
     <sheet name="Inventario" sheetId="4" r:id="rId4"/>
     <sheet name="Inventario - Valores" sheetId="5" r:id="rId5"/>
+    <sheet name="Funnel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>MÊS</t>
   </si>
@@ -183,6 +184,57 @@
   </si>
   <si>
     <t>CD - UDI</t>
+  </si>
+  <si>
+    <t>Motivos Bloqueio</t>
+  </si>
+  <si>
+    <t>Soma de Valor (BRL)</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>FALTA NA APANHA</t>
+  </si>
+  <si>
+    <t>ARMAZENAGEM</t>
+  </si>
+  <si>
+    <t>FALTA DA MERCADORIA</t>
+  </si>
+  <si>
+    <t>AJUSTE INVENT.SOBRA</t>
+  </si>
+  <si>
+    <t>SME</t>
+  </si>
+  <si>
+    <t>EM ANALISE</t>
+  </si>
+  <si>
+    <t>SENHA</t>
+  </si>
+  <si>
+    <t>FALTA NA DEVOLUÇÃO</t>
+  </si>
+  <si>
+    <t>Erro de movimentação</t>
+  </si>
+  <si>
+    <t>DESCARTE</t>
+  </si>
+  <si>
+    <t>AVARIA</t>
+  </si>
+  <si>
+    <t>Expedição</t>
+  </si>
+  <si>
+    <t>RECEBIMENTO</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA</t>
   </si>
 </sst>
 </file>
@@ -300,7 +352,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +390,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -355,6 +409,1025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inventario!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Realizado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="637CEF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inventario!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inventario!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A44-4E2B-A2BB-DB4184280657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Inventario!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Meta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E3008C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Inventario!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fevereiro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Março</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Junho</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Julho</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Agosto</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Setembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Inventario!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A44-4E2B-A2BB-DB4184280657}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="667806727"/>
+        <c:axId val="726934535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="667806727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726934535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726934535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667806727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="2AA0A4"/>
+  <a:srgbClr val="9373C0"/>
+  <a:srgbClr val="13A10E"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="CA5010"/>
+  <a:srgbClr val="57811B"/>
+  <a:srgbClr val="B146C2"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="AE8C00"/>
+  <a:srgbClr val="637CEF"/>
+  <a:srgbClr val="EE5FB7"/>
+  <a:srgbClr val="008B94"/>
+  <a:srgbClr val="D77440"/>
+  <a:srgbClr val="BA58C9"/>
+  <a:srgbClr val="3A96DD"/>
+  <a:srgbClr val="E3008C"/>
+  <a:srgbClr val="C36BD1"/>
+  <a:srgbClr val="D06228"/>
+  <a:srgbClr val="57811B"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F3527D-B7D7-E639-E11C-D719323E26E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,7 +2437,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1486,6 +2559,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1493,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECD6C5-31E8-4A35-8E8A-2E9C0805576D}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1569,4 +2643,206 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10CCE5D-8D22-4464-83C3-0B02E5F5BC4D}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="20">
+        <v>684195.6</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"Observação de teste: "&amp;A2</f>
+        <v>Observação de teste: FALTA NA APANHA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="20">
+        <v>355709.48</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C15" si="0">"Observação de teste: "&amp;A3</f>
+        <v>Observação de teste: ARMAZENAGEM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="20">
+        <v>264925.76</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: FALTA DA MERCADORIA</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="20">
+        <v>202192.17</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: AJUSTE INVENT.SOBRA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="20">
+        <v>197242.23</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: SME</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="20">
+        <v>186295.08</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: EM ANALISE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="20">
+        <v>50061.46</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: SENHA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="20">
+        <v>47206.21</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: FALTA NA DEVOLUÇÃO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="20">
+        <v>18735.71</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: Erro de movimentação</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="20">
+        <v>10575.54</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: DESCARTE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="20">
+        <v>5033.87</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: AVARIA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2022.75</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: Expedição</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="20">
+        <v>592.28</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: RECEBIMENTO</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="20">
+        <v>117.61</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Observação de teste: TRANSFERENCIA</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Apresentação.xlsx
+++ b/Apresentação.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DE1456-5400-464A-93BF-F9DA23D321B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bloqueado por Mês" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Inventario - Valores" sheetId="5" r:id="rId5"/>
     <sheet name="Funnel" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,12 +239,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +357,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,8 +395,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -411,1029 +420,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Inventario!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Realizado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="637CEF"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Inventario!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Inventario!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A44-4E2B-A2BB-DB4184280657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Inventario!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Meta</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="E3008C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Inventario!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Janeiro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Fevereiro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Março</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Abril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Maio</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Junho</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Julho</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Agosto</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Setembro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Inventario!$C$2:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A44-4E2B-A2BB-DB4184280657}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="667806727"/>
-        <c:axId val="726934535"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="667806727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="726934535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="726934535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="667806727"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="2AA0A4"/>
-  <a:srgbClr val="9373C0"/>
-  <a:srgbClr val="13A10E"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="CA5010"/>
-  <a:srgbClr val="57811B"/>
-  <a:srgbClr val="B146C2"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="EE5FB7"/>
-  <a:srgbClr val="008B94"/>
-  <a:srgbClr val="D77440"/>
-  <a:srgbClr val="BA58C9"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="C36BD1"/>
-  <a:srgbClr val="D06228"/>
-  <a:srgbClr val="57811B"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F3527D-B7D7-E639-E11C-D719323E26E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1471,9 +461,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,7 +533,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1716,14 +706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -1732,7 +722,7 @@
     <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1785,7 +775,7 @@
         <v>0.25476446763268851</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1804,7 +794,7 @@
         <v>5.5313033290878534E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1823,7 +813,7 @@
         <v>-0.37420012057463309</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +832,7 @@
         <v>-4.6235939352013269E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +851,7 @@
         <v>-4.0586256459345348E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +870,7 @@
         <v>0.23579708221821152</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1899,7 +889,7 @@
         <v>-1.9031752354915259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +908,7 @@
         <v>5.5909559832959768E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1937,7 +927,7 @@
         <v>9.3283858977983081E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +946,7 @@
         <v>0.16860768833861908</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +965,7 @@
         <v>-0.18736472739986545</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +984,7 @@
         <v>-0.1171883046201975</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +1003,7 @@
         <v>0.22254519236397882</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2032,7 +1022,7 @@
         <v>-9.8997769349963891E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +1041,7 @@
         <v>0.12906965572872101</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2070,7 +1060,7 @@
         <v>2.8318458761363085E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +1079,7 @@
         <v>0.13564857052084062</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -2108,7 +1098,7 @@
         <v>0.12837513061134229</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2133,14 +1123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -2149,7 +1139,7 @@
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2166,7 +1156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2183,7 +1173,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
@@ -2200,7 +1190,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
@@ -2217,7 +1207,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -2234,7 +1224,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -2251,7 +1241,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2268,7 +1258,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +1275,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +1292,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -2319,7 +1309,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -2342,20 +1332,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -2363,7 +1353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -2371,7 +1361,7 @@
         <v>369088.76819999964</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
@@ -2379,7 +1369,7 @@
         <v>321084.94119999977</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
@@ -2387,7 +1377,7 @@
         <v>62799.943600000013</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -2395,7 +1385,7 @@
         <v>1167090.7419000084</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
@@ -2403,7 +1393,7 @@
         <v>87315.459999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>34</v>
       </c>
@@ -2411,7 +1401,7 @@
         <v>13.12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2419,7 +1409,7 @@
         <v>31992.264000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2433,21 +1423,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC25E059-636F-4F03-BC8A-D97DB7BDDD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -2458,7 +1448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -2469,7 +1459,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -2480,7 +1470,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -2491,7 +1481,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
@@ -2502,7 +1492,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +1503,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
@@ -2524,7 +1514,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +1525,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +1536,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
@@ -2559,19 +1549,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECD6C5-31E8-4A35-8E8A-2E9C0805576D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
@@ -2585,7 +1574,7 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +1600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>2025</v>
       </c>
@@ -2637,7 +1626,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
     </row>
   </sheetData>
@@ -2646,203 +1635,204 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10CCE5D-8D22-4464-83C3-0B02E5F5BC4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="21">
         <v>684195.6</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="13" t="str">
         <f>"Observação de teste: "&amp;A2</f>
         <v>Observação de teste: FALTA NA APANHA</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <v>355709.48</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="13" t="str">
         <f t="shared" ref="C3:C15" si="0">"Observação de teste: "&amp;A3</f>
         <v>Observação de teste: ARMAZENAGEM</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="21">
         <v>264925.76</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: FALTA DA MERCADORIA</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>202192.17</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: AJUSTE INVENT.SOBRA</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="21">
         <v>197242.23</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: SME</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="21">
         <v>186295.08</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: EM ANALISE</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="21">
         <v>50061.46</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: SENHA</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>47206.21</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: FALTA NA DEVOLUÇÃO</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="21">
         <v>18735.71</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: Erro de movimentação</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="21">
         <v>10575.54</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: DESCARTE</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="21">
         <v>5033.87</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: AVARIA</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="21">
         <v>2022.75</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: Expedição</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="21">
         <v>592.28</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: RECEBIMENTO</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="21">
         <v>117.61</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Observação de teste: TRANSFERENCIA</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="20"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>